--- a/Auswertung/Szenarien/Aussage1.xlsx
+++ b/Auswertung/Szenarien/Aussage1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\Auswertung\Szenarien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\Auswertung\Szenarien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81EB2DA-5BFB-4375-A420-EA6D3DEB4A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5B247-E10B-43CF-9F46-0679686B33ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{C018E056-190F-4164-BDCC-19B000476B06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C018E056-190F-4164-BDCC-19B000476B06}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Mittelwert</t>
   </si>
@@ -375,7 +375,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1498,15 +1497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3877704D-78B6-4326-A75D-85347C98D175}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1566,6 +1565,15 @@
         <v>3.67</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(B2:B6)</f>
         <v>4</v>
       </c>
     </row>
